--- a/Team-Data/2012-13/2-4-2012-13.xlsx
+++ b/Team-Data/2012-13/2-4-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>0.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>12</v>
@@ -759,10 +826,10 @@
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
@@ -774,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -813,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="BA2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>-0.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
         <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -950,16 +1017,16 @@
         <v>6</v>
       </c>
       <c r="AL3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM3" t="n">
         <v>27</v>
       </c>
-      <c r="AM3" t="n">
-        <v>28</v>
-      </c>
       <c r="AN3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -971,13 +1038,13 @@
         <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="n">
         <v>15</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>1.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH4" t="n">
         <v>9</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1138,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
@@ -1162,7 +1229,7 @@
         <v>26</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW4" t="n">
         <v>25</v>
@@ -1177,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="n">
         <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="n">
-        <v>0.234</v>
+        <v>0.239</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
@@ -1236,22 +1303,22 @@
         <v>0.424</v>
       </c>
       <c r="L5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O5" t="n">
         <v>19.6</v>
       </c>
       <c r="P5" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R5" t="n">
         <v>11.5</v>
@@ -1263,43 +1330,43 @@
         <v>40.8</v>
       </c>
       <c r="U5" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="V5" t="n">
         <v>14.4</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X5" t="n">
         <v>6.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB5" t="n">
         <v>94.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.4</v>
+        <v>-8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH5" t="n">
         <v>8</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
         <v>28</v>
@@ -1317,19 +1384,19 @@
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
       </c>
       <c r="AP5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR5" t="n">
         <v>15</v>
@@ -1356,13 +1423,13 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="n">
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
         <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>0.604</v>
+        <v>0.617</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J6" t="n">
-        <v>81.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.439</v>
@@ -1424,7 +1491,7 @@
         <v>13.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O6" t="n">
         <v>17.5</v>
@@ -1433,58 +1500,58 @@
         <v>22.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.782</v>
+        <v>0.78</v>
       </c>
       <c r="R6" t="n">
         <v>12.6</v>
       </c>
       <c r="S6" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="T6" t="n">
-        <v>43.7</v>
+        <v>43.9</v>
       </c>
       <c r="U6" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V6" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
         <v>5.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA6" t="n">
         <v>20.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
         <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
@@ -1493,7 +1560,7 @@
         <v>22</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1502,16 +1569,16 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
         <v>8</v>
@@ -1523,28 +1590,28 @@
         <v>5</v>
       </c>
       <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX6" t="n">
         <v>10</v>
       </c>
-      <c r="AV6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>9</v>
-      </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -1654,16 +1721,16 @@
         <v>-5.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH7" t="n">
         <v>26</v>
@@ -1684,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
         <v>15</v>
@@ -1708,10 +1775,10 @@
         <v>28</v>
       </c>
       <c r="AV7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1723,7 +1790,7 @@
         <v>29</v>
       </c>
       <c r="BA7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -1758,52 +1825,52 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" t="n">
         <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.417</v>
+        <v>0.426</v>
       </c>
       <c r="H8" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I8" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J8" t="n">
-        <v>84.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L8" t="n">
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.359</v>
+        <v>0.362</v>
       </c>
       <c r="O8" t="n">
         <v>17.3</v>
       </c>
       <c r="P8" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q8" t="n">
         <v>0.797</v>
       </c>
       <c r="R8" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S8" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T8" t="n">
         <v>42.3</v>
@@ -1812,34 +1879,34 @@
         <v>22.6</v>
       </c>
       <c r="V8" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W8" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y8" t="n">
         <v>4.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
         <v>19.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.5</v>
+        <v>100.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>-2.6</v>
+        <v>-2.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>21</v>
@@ -1857,22 +1924,22 @@
         <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
         <v>10</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1896,10 +1963,10 @@
         <v>17</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ8" t="n">
         <v>25</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF9" t="n">
         <v>8</v>
@@ -2030,7 +2097,7 @@
         <v>8</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2045,7 +2112,7 @@
         <v>21</v>
       </c>
       <c r="AM9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AN9" t="n">
         <v>28</v>
@@ -2054,7 +2121,7 @@
         <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ9" t="n">
         <v>30</v>
@@ -2084,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -2122,85 +2189,85 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" t="n">
         <v>18</v>
       </c>
       <c r="F10" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>0.367</v>
+        <v>0.375</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J10" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L10" t="n">
         <v>6.1</v>
       </c>
       <c r="M10" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.364</v>
+        <v>0.366</v>
       </c>
       <c r="O10" t="n">
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
       <c r="P10" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.695</v>
       </c>
       <c r="R10" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T10" t="n">
         <v>43.7</v>
       </c>
       <c r="U10" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="V10" t="n">
         <v>15.1</v>
       </c>
       <c r="W10" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
         <v>5.8</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.9</v>
+        <v>-1.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2215,7 +2282,7 @@
         <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="n">
         <v>21</v>
@@ -2230,10 +2297,10 @@
         <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2245,16 +2312,16 @@
         <v>7</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW10" t="n">
         <v>28</v>
@@ -2266,16 +2333,16 @@
         <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB10" t="n">
         <v>22</v>
       </c>
       <c r="BC10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>1.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2394,13 +2461,13 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK11" t="n">
         <v>8</v>
@@ -2409,13 +2476,13 @@
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2424,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2433,10 +2500,10 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>2.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
         <v>15</v>
@@ -2576,7 +2643,7 @@
         <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2612,10 +2679,10 @@
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -2668,46 +2735,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" t="n">
         <v>19</v>
       </c>
       <c r="G13" t="n">
-        <v>0.604</v>
+        <v>0.596</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J13" t="n">
-        <v>80.8</v>
+        <v>81</v>
       </c>
       <c r="K13" t="n">
-        <v>0.43</v>
+        <v>0.428</v>
       </c>
       <c r="L13" t="n">
         <v>6.7</v>
       </c>
       <c r="M13" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O13" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="P13" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.744</v>
+        <v>0.742</v>
       </c>
       <c r="R13" t="n">
         <v>13</v>
@@ -2719,7 +2786,7 @@
         <v>45.6</v>
       </c>
       <c r="U13" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V13" t="n">
         <v>15.3</v>
@@ -2737,52 +2804,52 @@
         <v>19.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>92.40000000000001</v>
+        <v>92</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
       </c>
       <c r="AL13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM13" t="n">
         <v>16</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AN13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP13" t="n">
         <v>17</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>16</v>
       </c>
       <c r="AQ13" t="n">
         <v>21</v>
@@ -2812,7 +2879,7 @@
         <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" t="n">
         <v>34</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>0.68</v>
+        <v>0.694</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2880,22 +2947,22 @@
         <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="O14" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P14" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.707</v>
+        <v>0.706</v>
       </c>
       <c r="R14" t="n">
         <v>11.6</v>
       </c>
       <c r="S14" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T14" t="n">
         <v>41.9</v>
@@ -2904,7 +2971,7 @@
         <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W14" t="n">
         <v>10</v>
@@ -2913,19 +2980,19 @@
         <v>5.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2934,10 +3001,10 @@
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH14" t="n">
         <v>30</v>
@@ -2952,16 +3019,16 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO14" t="n">
         <v>12</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>14</v>
       </c>
       <c r="AP14" t="n">
         <v>8</v>
@@ -2976,13 +3043,13 @@
         <v>20</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3128,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -3152,7 +3219,7 @@
         <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS15" t="n">
         <v>3</v>
@@ -3167,13 +3234,13 @@
         <v>27</v>
       </c>
       <c r="AW15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX15" t="n">
         <v>9</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>5</v>
@@ -3182,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -3292,19 +3359,19 @@
         <v>3.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF16" t="n">
         <v>6</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>5</v>
       </c>
       <c r="AG16" t="n">
         <v>6</v>
       </c>
       <c r="AH16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
@@ -3322,10 +3389,10 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
         <v>24</v>
@@ -3340,7 +3407,7 @@
         <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU16" t="n">
         <v>23</v>
@@ -3352,19 +3419,19 @@
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H17" t="n">
         <v>48.7</v>
       </c>
       <c r="I17" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J17" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.49</v>
       </c>
       <c r="L17" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.38</v>
+        <v>0.384</v>
       </c>
       <c r="O17" t="n">
         <v>17.1</v>
@@ -3435,13 +3502,13 @@
         <v>22.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="R17" t="n">
         <v>8.5</v>
       </c>
       <c r="S17" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T17" t="n">
         <v>39</v>
@@ -3450,7 +3517,7 @@
         <v>22.3</v>
       </c>
       <c r="V17" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W17" t="n">
         <v>8.300000000000001</v>
@@ -3483,7 +3550,7 @@
         <v>3</v>
       </c>
       <c r="AG17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH17" t="n">
         <v>6</v>
@@ -3498,13 +3565,13 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM17" t="n">
         <v>9</v>
       </c>
       <c r="AN17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
         <v>11</v>
@@ -3513,7 +3580,7 @@
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3531,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
@@ -3540,13 +3607,13 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
       </c>
       <c r="BB17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3665,13 +3732,13 @@
         <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3686,7 +3753,7 @@
         <v>20</v>
       </c>
       <c r="AN18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
@@ -3698,19 +3765,19 @@
         <v>22</v>
       </c>
       <c r="AR18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU18" t="n">
         <v>15</v>
       </c>
-      <c r="AT18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>16</v>
-      </c>
       <c r="AV18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW18" t="n">
         <v>7</v>
@@ -3722,7 +3789,7 @@
         <v>6</v>
       </c>
       <c r="AZ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -3760,55 +3827,55 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" t="n">
         <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4</v>
+        <v>0.409</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J19" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L19" t="n">
         <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0.299</v>
+        <v>0.3</v>
       </c>
       <c r="O19" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P19" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.729</v>
+        <v>0.728</v>
       </c>
       <c r="R19" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S19" t="n">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="T19" t="n">
-        <v>43.5</v>
+        <v>43.8</v>
       </c>
       <c r="U19" t="n">
         <v>22</v>
@@ -3817,22 +3884,22 @@
         <v>15.3</v>
       </c>
       <c r="W19" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X19" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y19" t="n">
         <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="AC19" t="n">
         <v>-1.7</v>
@@ -3844,7 +3911,7 @@
         <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
         <v>21</v>
@@ -3853,16 +3920,16 @@
         <v>27</v>
       </c>
       <c r="AI19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM19" t="n">
         <v>22</v>
@@ -3880,28 +3947,28 @@
         <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AT19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU19" t="n">
         <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>15</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>-4.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
         <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4041,7 +4108,7 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
@@ -4065,7 +4132,7 @@
         <v>16</v>
       </c>
       <c r="AS20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT20" t="n">
         <v>21</v>
@@ -4083,19 +4150,19 @@
         <v>12</v>
       </c>
       <c r="AY20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB20" t="n">
         <v>25</v>
       </c>
-      <c r="AZ20" t="n">
-        <v>22</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>25</v>
-      </c>
-      <c r="BB20" t="n">
+      <c r="BC20" t="n">
         <v>26</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>25</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" t="n">
         <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>0.674</v>
+        <v>0.667</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4142,16 +4209,16 @@
         <v>37.1</v>
       </c>
       <c r="J21" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.447</v>
       </c>
       <c r="L21" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="M21" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="N21" t="n">
         <v>0.385</v>
@@ -4160,49 +4227,49 @@
         <v>15.6</v>
       </c>
       <c r="P21" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T21" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="U21" t="n">
         <v>20.2</v>
       </c>
       <c r="V21" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="W21" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X21" t="n">
         <v>3.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z21" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AB21" t="n">
         <v>101</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
         <v>4</v>
@@ -4217,10 +4284,10 @@
         <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK21" t="n">
         <v>15</v>
@@ -4244,10 +4311,10 @@
         <v>19</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT21" t="n">
         <v>23</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX21" t="n">
         <v>29</v>
@@ -4268,10 +4335,10 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
@@ -4324,7 +4391,7 @@
         <v>37.8</v>
       </c>
       <c r="J22" t="n">
-        <v>79</v>
+        <v>78.8</v>
       </c>
       <c r="K22" t="n">
         <v>0.479</v>
@@ -4333,7 +4400,7 @@
         <v>7.5</v>
       </c>
       <c r="M22" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N22" t="n">
         <v>0.384</v>
@@ -4345,31 +4412,31 @@
         <v>27.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.834</v>
+        <v>0.836</v>
       </c>
       <c r="R22" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S22" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="T22" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U22" t="n">
         <v>21.8</v>
       </c>
       <c r="V22" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
         <v>7.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z22" t="n">
         <v>20.7</v>
@@ -4378,13 +4445,13 @@
         <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,13 +4463,13 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
       </c>
       <c r="AJ22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4411,7 +4478,7 @@
         <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN22" t="n">
         <v>3</v>
@@ -4429,10 +4496,10 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU22" t="n">
         <v>19</v>
@@ -4441,16 +4508,16 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA22" t="n">
         <v>6</v>
@@ -4459,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="BC22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -4488,43 +4555,43 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="n">
         <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" t="n">
-        <v>0.292</v>
+        <v>0.298</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.5</v>
+        <v>37.8</v>
       </c>
       <c r="J23" t="n">
         <v>83.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.451</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.344</v>
+        <v>0.347</v>
       </c>
       <c r="O23" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="P23" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="Q23" t="n">
         <v>0.781</v>
@@ -4533,70 +4600,70 @@
         <v>10.5</v>
       </c>
       <c r="S23" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U23" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V23" t="n">
         <v>14.6</v>
       </c>
       <c r="W23" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y23" t="n">
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.6</v>
+        <v>18.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.8</v>
+        <v>-4.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>27</v>
       </c>
       <c r="AF23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
         <v>27</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>16</v>
       </c>
       <c r="AM23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4605,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
@@ -4617,7 +4684,7 @@
         <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV23" t="n">
         <v>12</v>
@@ -4632,16 +4699,16 @@
         <v>15</v>
       </c>
       <c r="AZ23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" t="n">
         <v>26</v>
       </c>
       <c r="G24" t="n">
-        <v>0.447</v>
+        <v>0.435</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,7 +4755,7 @@
         <v>37.4</v>
       </c>
       <c r="J24" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.446</v>
@@ -4700,31 +4767,31 @@
         <v>17.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.353</v>
+        <v>0.358</v>
       </c>
       <c r="O24" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="P24" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.718</v>
+        <v>0.719</v>
       </c>
       <c r="R24" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S24" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="T24" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U24" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V24" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W24" t="n">
         <v>7.3</v>
@@ -4733,22 +4800,22 @@
         <v>5.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>93</v>
+        <v>93.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>-2.8</v>
+        <v>-3.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -4760,7 +4827,7 @@
         <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>11</v>
@@ -4775,10 +4842,10 @@
         <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4793,13 +4860,13 @@
         <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AT24" t="n">
         <v>22</v>
       </c>
       <c r="AU24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV24" t="n">
         <v>3</v>
@@ -4808,19 +4875,19 @@
         <v>20</v>
       </c>
       <c r="AX24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>25</v>
@@ -4957,7 +5024,7 @@
         <v>25</v>
       </c>
       <c r="AM25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
         <v>29</v>
@@ -4996,7 +5063,7 @@
         <v>18</v>
       </c>
       <c r="AZ25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -5034,61 +5101,61 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" t="n">
         <v>23</v>
       </c>
       <c r="G26" t="n">
-        <v>0.521</v>
+        <v>0.511</v>
       </c>
       <c r="H26" t="n">
         <v>48.7</v>
       </c>
       <c r="I26" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J26" t="n">
-        <v>82</v>
+        <v>82.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.441</v>
+        <v>0.438</v>
       </c>
       <c r="L26" t="n">
         <v>8.1</v>
       </c>
       <c r="M26" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O26" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P26" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.771</v>
+        <v>0.773</v>
       </c>
       <c r="R26" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S26" t="n">
         <v>30.4</v>
       </c>
       <c r="T26" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="W26" t="n">
         <v>7.3</v>
@@ -5100,22 +5167,22 @@
         <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA26" t="n">
         <v>19.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF26" t="n">
         <v>15</v>
@@ -5130,13 +5197,13 @@
         <v>22</v>
       </c>
       <c r="AJ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM26" t="n">
         <v>4</v>
@@ -5166,10 +5233,10 @@
         <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AW26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX26" t="n">
         <v>20</v>
@@ -5178,16 +5245,16 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -5216,64 +5283,64 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" t="n">
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" t="n">
-        <v>0.34</v>
+        <v>0.347</v>
       </c>
       <c r="H27" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J27" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L27" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M27" t="n">
         <v>18.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.348</v>
+        <v>0.352</v>
       </c>
       <c r="O27" t="n">
         <v>16.9</v>
       </c>
       <c r="P27" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R27" t="n">
         <v>11.8</v>
       </c>
       <c r="S27" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="T27" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U27" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V27" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W27" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X27" t="n">
         <v>4.5</v>
@@ -5288,7 +5355,7 @@
         <v>19.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC27" t="n">
         <v>-7.2</v>
@@ -5300,37 +5367,37 @@
         <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
         <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM27" t="n">
         <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AO27" t="n">
         <v>16</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ27" t="n">
         <v>17</v>
@@ -5351,7 +5418,7 @@
         <v>18</v>
       </c>
       <c r="AW27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
@@ -5509,7 +5576,7 @@
         <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>23</v>
@@ -5530,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW28" t="n">
         <v>4</v>
@@ -5539,7 +5606,7 @@
         <v>16</v>
       </c>
       <c r="AY28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5551,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="BC28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>-1.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
         <v>23</v>
@@ -5676,7 +5743,7 @@
         <v>18</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
         <v>20</v>
@@ -5688,10 +5755,10 @@
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5715,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX29" t="n">
         <v>23</v>
@@ -5733,7 +5800,7 @@
         <v>13</v>
       </c>
       <c r="BC29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -5762,70 +5829,70 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" t="n">
         <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.551</v>
+        <v>0.542</v>
       </c>
       <c r="H30" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I30" t="n">
         <v>36.7</v>
       </c>
       <c r="J30" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L30" t="n">
         <v>6.2</v>
       </c>
       <c r="M30" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N30" t="n">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
       <c r="O30" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P30" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R30" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S30" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T30" t="n">
         <v>41.9</v>
       </c>
       <c r="U30" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V30" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W30" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X30" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z30" t="n">
         <v>21.6</v>
@@ -5837,10 +5904,10 @@
         <v>98</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
@@ -5849,19 +5916,19 @@
         <v>14</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
         <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
@@ -5870,7 +5937,7 @@
         <v>25</v>
       </c>
       <c r="AN30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5882,19 +5949,19 @@
         <v>12</v>
       </c>
       <c r="AR30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV30" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AW30" t="n">
         <v>8</v>
@@ -5903,13 +5970,13 @@
         <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ30" t="n">
         <v>27</v>
       </c>
       <c r="BA30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
@@ -5944,46 +6011,46 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" t="n">
         <v>35</v>
       </c>
       <c r="G31" t="n">
-        <v>0.255</v>
+        <v>0.239</v>
       </c>
       <c r="H31" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I31" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J31" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.422</v>
+        <v>0.421</v>
       </c>
       <c r="L31" t="n">
         <v>6.5</v>
       </c>
       <c r="M31" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.34</v>
+        <v>0.336</v>
       </c>
       <c r="O31" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="P31" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="R31" t="n">
         <v>11</v>
@@ -5995,10 +6062,10 @@
         <v>43.4</v>
       </c>
       <c r="U31" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V31" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W31" t="n">
         <v>7.5</v>
@@ -6007,22 +6074,22 @@
         <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>91</v>
+        <v>90.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-4.8</v>
+        <v>-5.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6046,13 +6113,13 @@
         <v>30</v>
       </c>
       <c r="AL31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO31" t="n">
         <v>27</v>
@@ -6085,19 +6152,19 @@
         <v>22</v>
       </c>
       <c r="AY31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-4-2012-13</t>
+          <t>2013-02-04</t>
         </is>
       </c>
     </row>
